--- a/data/flete_ciudad.xlsx
+++ b/data/flete_ciudad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16DED80F-CB34-4D0B-BDBB-F67A59BECF0A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83E9DA2-DFFD-4751-8569-37E1F7F23151}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7D296037-CB15-4E7C-9EA2-3A9DE4D5F142}"/>
   </bookViews>
@@ -145,16 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,25 +181,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E86D2EF-63B4-473C-911B-65AEEFDE1EB2}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -551,27 +539,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1">
-        <v>51258</v>
+      <c r="B2" s="3">
+        <v>1.2976708860759494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1">
-        <v>66627</v>
+      <c r="B3" s="3">
+        <v>1.6867594936708861</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -579,31 +567,31 @@
         <v>31</v>
       </c>
       <c r="B4" s="3">
-        <v>14180</v>
+        <v>0.35898734177215191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
-        <v>60634</v>
+      <c r="B5" s="3">
+        <v>1.5350379746835443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>14819</v>
+        <v>0.37516455696202533</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>16474</v>
+        <v>0.41706329113924051</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -611,199 +599,199 @@
         <v>32</v>
       </c>
       <c r="B8" s="3">
-        <v>66627</v>
+        <v>1.6867594936708861</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
-        <v>14180</v>
+      <c r="B9" s="3">
+        <v>0.35898734177215191</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>14180</v>
+      <c r="B10" s="3">
+        <v>0.35898734177215191</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1">
-        <v>14819</v>
+      <c r="B11" s="3">
+        <v>0.37516455696202533</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>14542</v>
+        <v>0.3681518987341772</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>60634</v>
+        <v>1.5350379746835443</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>15606</v>
+        <v>0.39508860759493669</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <v>13966</v>
+        <v>0.35356962025316457</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>14180</v>
+      <c r="B16" s="3">
+        <v>0.35898734177215191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>13966</v>
+        <v>0.35356962025316457</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
-        <v>15606</v>
+      <c r="B18" s="3">
+        <v>0.39508860759493669</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3">
-        <v>15606</v>
+        <v>0.39508860759493669</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3">
-        <v>15606</v>
+        <v>0.39508860759493669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1">
-        <v>16474</v>
+      <c r="B21" s="3">
+        <v>0.41706329113924051</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>66627</v>
+        <v>1.6867594936708861</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3">
-        <v>66627</v>
+        <v>1.6867594936708861</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
-        <v>66627</v>
+      <c r="B24" s="3">
+        <v>1.6867594936708861</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>13699</v>
+        <v>0.3468101265822785</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3">
-        <v>13699</v>
+        <v>0.3468101265822785</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>13699</v>
+        <v>0.3468101265822785</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3">
-        <v>13699</v>
+        <v>0.3468101265822785</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1">
-        <v>6405</v>
+      <c r="B29" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
-        <v>13966</v>
+      <c r="B30" s="3">
+        <v>0.35356962025316457</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
-        <v>15606</v>
+      <c r="B31" s="3">
+        <v>0.39508860759493669</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
-        <v>13699</v>
+      <c r="B32" s="3">
+        <v>0.3468101265822785</v>
       </c>
     </row>
   </sheetData>

--- a/data/flete_ciudad.xlsx
+++ b/data/flete_ciudad.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83E9DA2-DFFD-4751-8569-37E1F7F23151}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94224C3-AE6C-49E9-81D5-80C430C639BD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7D296037-CB15-4E7C-9EA2-3A9DE4D5F142}"/>
   </bookViews>
   <sheets>
     <sheet name="Flete" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flete!$A$1:$B$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flete!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,92 +42,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Valparaiso</t>
   </si>
   <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
     <t>Talca</t>
   </si>
   <si>
     <t>Santiago</t>
   </si>
   <si>
-    <t>San Vicente</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Romeral</t>
-  </si>
-  <si>
-    <t>Punta Arenas</t>
-  </si>
-  <si>
-    <t>Puerto Williams</t>
-  </si>
-  <si>
-    <t>Puerto Natales</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Pichirropulli</t>
-  </si>
-  <si>
-    <t>Ovalle</t>
-  </si>
-  <si>
-    <t>Osorno</t>
-  </si>
-  <si>
-    <t>Mejillones</t>
-  </si>
-  <si>
     <t>Los Ángeles</t>
   </si>
   <si>
-    <t>Linares</t>
-  </si>
-  <si>
-    <t>Lautaro</t>
-  </si>
-  <si>
-    <t>Iquique</t>
-  </si>
-  <si>
     <t>Coquimbo</t>
   </si>
   <si>
-    <t>Copiapó</t>
-  </si>
-  <si>
     <t>Concepción</t>
   </si>
   <si>
     <t>Chillán</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Caldera</t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>Arica</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
@@ -134,10 +77,22 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>Coronel</t>
-  </si>
-  <si>
-    <t>Puerto Aysen</t>
+    <t>Chiloe</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Curico</t>
   </si>
 </sst>
 </file>
@@ -164,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -193,11 +154,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -208,6 +191,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="demanda"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ciudad</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Antofagasta</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Chillán</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Concepción</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Coquimbo</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Los Ángeles</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Puerto Montt</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Valparaiso</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Rancagua</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Santiago</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Curico</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Temuco</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Chiloe</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>La Serena</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Curanilahue</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Talca</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E86D2EF-63B4-473C-911B-65AEEFDE1EB2}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -538,264 +618,275 @@
     <col min="1" max="1" width="17.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>1.2976708860759494</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,[1]demanda!$A:$A,1,0)</f>
+        <v>Antofagasta</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>1.6867594936708861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>31</v>
+        <v>0.41706329113924051</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,[1]demanda!$A:$A,1,0)</f>
+        <v>Chiloe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>0.35898734177215191</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,[1]demanda!$A:$A,1,0)</f>
+        <v>Chillán</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1.5350379746835443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>0.35898734177215191</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,[1]demanda!$A:$A,1,0)</f>
+        <v>Concepción</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.37516455696202533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>0.3681518987341772</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,[1]demanda!$A:$A,1,0)</f>
+        <v>Coquimbo</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="3">
+        <v>0.3681518987341772</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,[1]demanda!$A:$A,1,0)</f>
+        <v>La Serena</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.35898734177215191</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,[1]demanda!$A:$A,1,0)</f>
+        <v>Los Ángeles</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.41706329113924051</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.6867594936708861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.35898734177215191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,[1]demanda!$A:$A,1,0)</f>
+        <v>Puerto Montt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>0.35898734177215191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,[1]demanda!$A:$A,1,0)</f>
+        <v>Rancagua</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>0.37516455696202533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,[1]demanda!$A:$A,1,0)</f>
+        <v>Santiago</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>0.3681518987341772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>0.35356962025316457</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,[1]demanda!$A:$A,1,0)</f>
+        <v>Curico</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>1.5350379746835443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>0.35356962025316457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B14" s="3">
-        <v>0.39508860759493669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.35356962025316457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,[1]demanda!$A:$A,1,0)</f>
+        <v>Valparaiso</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.34430379746835443</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,[1]demanda!$A:$A,1,0)</f>
+        <v>Temuco</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>0.35898734177215191</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.35356962025316457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.39508860759493669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.39508860759493669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.39508860759493669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.41706329113924051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.6867594936708861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.6867594936708861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.6867594936708861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.3468101265822785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.3468101265822785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.3468101265822785</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.3468101265822785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.35356962025316457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.39508860759493669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.3468101265822785</v>
-      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,[1]demanda!$A:$A,1,0)</f>
+        <v>Curanilahue</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B17" xr:uid="{479846F8-BE87-4FCF-9871-24624D9E497E}"/>
+  <autoFilter ref="A1:B18" xr:uid="{479846F8-BE87-4FCF-9871-24624D9E497E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+      <sortCondition sortBy="cellColor" ref="A1:A18" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/flete_ciudad.xlsx
+++ b/data/flete_ciudad.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94224C3-AE6C-49E9-81D5-80C430C639BD}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{E8077981-0C02-4AC9-A527-E07E28F4D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D48EB4F6-C2B7-4A54-AF0C-78D98103E519}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7D296037-CB15-4E7C-9EA2-3A9DE4D5F142}"/>
   </bookViews>
   <sheets>
     <sheet name="Flete" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flete!$A$1:$B$18</definedName>
   </definedNames>
@@ -44,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
     <t>Talca</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>Chiloe</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
@@ -92,7 +83,13 @@
     <t>Rancagua</t>
   </si>
   <si>
-    <t>Curico</t>
+    <t>Chiloé</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Curicó</t>
   </si>
 </sst>
 </file>
@@ -163,15 +160,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -191,103 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="demanda"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ciudad</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Antofagasta</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Chillán</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Concepción</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Coquimbo</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Los Ángeles</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Puerto Montt</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Valparaiso</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Rancagua</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Santiago</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Curico</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Temuco</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Chiloe</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>La Serena</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Curanilahue</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Talca</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,7 +502,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -618,188 +510,132 @@
     <col min="1" max="1" width="17.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>1.2976708860759494</v>
       </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(A2,[1]demanda!$A:$A,1,0)</f>
-        <v>Antofagasta</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>0.41706329113924051</v>
       </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(A3,[1]demanda!$A:$A,1,0)</f>
-        <v>Chiloe</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0.35898734177215191</v>
       </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,[1]demanda!$A:$A,1,0)</f>
-        <v>Chillán</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>0.35898734177215191</v>
       </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,[1]demanda!$A:$A,1,0)</f>
-        <v>Concepción</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.3681518987341772</v>
       </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,[1]demanda!$A:$A,1,0)</f>
-        <v>Coquimbo</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0.3681518987341772</v>
       </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,[1]demanda!$A:$A,1,0)</f>
-        <v>La Serena</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>0.35898734177215191</v>
       </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,[1]demanda!$A:$A,1,0)</f>
-        <v>Los Ángeles</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>0.41706329113924051</v>
       </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,[1]demanda!$A:$A,1,0)</f>
-        <v>Puerto Montt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>0.3468101265822785</v>
       </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,[1]demanda!$A:$A,1,0)</f>
-        <v>Rancagua</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,[1]demanda!$A:$A,1,0)</f>
-        <v>Santiago</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>0.35356962025316457</v>
       </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,[1]demanda!$A:$A,1,0)</f>
-        <v>Curico</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3">
         <v>0.35356962025316457</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>0.3468101265822785</v>
       </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(A14,[1]demanda!$A:$A,1,0)</f>
-        <v>Valparaiso</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>0.34430379746835443</v>
       </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(A15,[1]demanda!$A:$A,1,0)</f>
-        <v>Temuco</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>0.35898734177215191</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(A16,[1]demanda!$A:$A,1,0)</f>
-        <v>Curanilahue</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -884,7 +720,7 @@
   </sheetData>
   <autoFilter ref="A1:B18" xr:uid="{479846F8-BE87-4FCF-9871-24624D9E497E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-      <sortCondition sortBy="cellColor" ref="A1:A18" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A18" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
